--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H2">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="N2">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="O2">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="P2">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="Q2">
-        <v>395.5622045671792</v>
+        <v>646.923500790112</v>
       </c>
       <c r="R2">
-        <v>395.5622045671792</v>
+        <v>5822.311507111008</v>
       </c>
       <c r="S2">
-        <v>0.07149480283809617</v>
+        <v>0.09896446036554586</v>
       </c>
       <c r="T2">
-        <v>0.07149480283809617</v>
+        <v>0.09896446036554585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H3">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N3">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="O3">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="P3">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="Q3">
-        <v>513.2006931284279</v>
+        <v>538.5366485194755</v>
       </c>
       <c r="R3">
-        <v>513.2006931284279</v>
+        <v>4846.829836675281</v>
       </c>
       <c r="S3">
-        <v>0.09275704793823372</v>
+        <v>0.08238375749637655</v>
       </c>
       <c r="T3">
-        <v>0.09275704793823372</v>
+        <v>0.08238375749637654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H4">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="N4">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="O4">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="P4">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="Q4">
-        <v>286.329913737018</v>
+        <v>305.2895157861336</v>
       </c>
       <c r="R4">
-        <v>286.329913737018</v>
+        <v>2747.605642075203</v>
       </c>
       <c r="S4">
-        <v>0.05175191282917561</v>
+        <v>0.04670229501344976</v>
       </c>
       <c r="T4">
-        <v>0.05175191282917561</v>
+        <v>0.04670229501344975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H5">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="N5">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="O5">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="P5">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="Q5">
-        <v>286.6240253168971</v>
+        <v>303.0629112152764</v>
       </c>
       <c r="R5">
-        <v>286.6240253168971</v>
+        <v>2727.566200937487</v>
       </c>
       <c r="S5">
-        <v>0.05180507121785147</v>
+        <v>0.04636167557462396</v>
       </c>
       <c r="T5">
-        <v>0.05180507121785147</v>
+        <v>0.04636167557462396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H6">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="N6">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="O6">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="P6">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="Q6">
-        <v>736.6667952977982</v>
+        <v>1165.808132768981</v>
       </c>
       <c r="R6">
-        <v>736.6667952977982</v>
+        <v>10492.27319492083</v>
       </c>
       <c r="S6">
-        <v>0.1331468140259177</v>
+        <v>0.1783419099914237</v>
       </c>
       <c r="T6">
-        <v>0.1331468140259177</v>
+        <v>0.1783419099914237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H7">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N7">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="O7">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="P7">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="Q7">
-        <v>955.7483136317222</v>
+        <v>970.4863154165247</v>
       </c>
       <c r="R7">
-        <v>955.7483136317222</v>
+        <v>8734.376838748723</v>
       </c>
       <c r="S7">
-        <v>0.1727441005662058</v>
+        <v>0.1484621510581106</v>
       </c>
       <c r="T7">
-        <v>0.1727441005662058</v>
+        <v>0.1484621510581105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H8">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="N8">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="O8">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="P8">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="Q8">
-        <v>533.2403791746019</v>
+        <v>550.1562393666235</v>
       </c>
       <c r="R8">
-        <v>533.2403791746019</v>
+        <v>4951.406154299611</v>
       </c>
       <c r="S8">
-        <v>0.09637906588197595</v>
+        <v>0.0841612884354319</v>
       </c>
       <c r="T8">
-        <v>0.09637906588197595</v>
+        <v>0.08416128843543187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H9">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="N9">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="O9">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="P9">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="Q9">
-        <v>533.7881115729655</v>
+        <v>546.1437190083498</v>
       </c>
       <c r="R9">
-        <v>533.7881115729655</v>
+        <v>4915.293471075148</v>
       </c>
       <c r="S9">
-        <v>0.09647806426801206</v>
+        <v>0.08354746483576773</v>
       </c>
       <c r="T9">
-        <v>0.09647806426801206</v>
+        <v>0.08354746483576773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H10">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="N10">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="O10">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="P10">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="Q10">
-        <v>93.34089655304844</v>
+        <v>146.6954005523627</v>
       </c>
       <c r="R10">
-        <v>93.34089655304844</v>
+        <v>1320.258604971264</v>
       </c>
       <c r="S10">
-        <v>0.01687064365285681</v>
+        <v>0.02244103226431138</v>
       </c>
       <c r="T10">
-        <v>0.01687064365285681</v>
+        <v>0.02244103226431137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H11">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N11">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="O11">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="P11">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="Q11">
-        <v>121.1000754247186</v>
+        <v>122.1177608638498</v>
       </c>
       <c r="R11">
-        <v>121.1000754247186</v>
+        <v>1099.059847774648</v>
       </c>
       <c r="S11">
-        <v>0.02188790009814605</v>
+        <v>0.0186812170066158</v>
       </c>
       <c r="T11">
-        <v>0.02188790009814605</v>
+        <v>0.01868121700661579</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H12">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="N12">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="O12">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="P12">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="Q12">
-        <v>67.56532992684164</v>
+        <v>69.22699167364712</v>
       </c>
       <c r="R12">
-        <v>67.56532992684164</v>
+        <v>623.042925062824</v>
       </c>
       <c r="S12">
-        <v>0.01221190974778804</v>
+        <v>0.01059014221209343</v>
       </c>
       <c r="T12">
-        <v>0.01221190974778804</v>
+        <v>0.01059014221209343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H13">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="N13">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="O13">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="P13">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="Q13">
-        <v>67.63473149816363</v>
+        <v>68.72209016829957</v>
       </c>
       <c r="R13">
-        <v>67.63473149816363</v>
+        <v>618.4988115146962</v>
       </c>
       <c r="S13">
-        <v>0.01222445354393699</v>
+        <v>0.01051290386018096</v>
       </c>
       <c r="T13">
-        <v>0.01222445354393699</v>
+        <v>0.01051290386018096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H14">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.0672419846785</v>
+        <v>87.667552</v>
       </c>
       <c r="N14">
-        <v>56.0672419846785</v>
+        <v>263.002656</v>
       </c>
       <c r="O14">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="P14">
-        <v>0.2669620772042609</v>
+        <v>0.3606416352150456</v>
       </c>
       <c r="Q14">
-        <v>251.4620500003456</v>
+        <v>398.061182589952</v>
       </c>
       <c r="R14">
-        <v>251.4620500003456</v>
+        <v>3582.550643309568</v>
       </c>
       <c r="S14">
-        <v>0.04544981668739009</v>
+        <v>0.06089423259376472</v>
       </c>
       <c r="T14">
-        <v>0.04544981668739009</v>
+        <v>0.06089423259376471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H15">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>72.7413972217601</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N15">
-        <v>72.7413972217601</v>
+        <v>218.938667</v>
       </c>
       <c r="O15">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="P15">
-        <v>0.3463554441712686</v>
+        <v>0.3002190170987564</v>
       </c>
       <c r="Q15">
-        <v>326.245775925126</v>
+        <v>331.3692189507306</v>
       </c>
       <c r="R15">
-        <v>326.245775925126</v>
+        <v>2982.322970556575</v>
       </c>
       <c r="S15">
-        <v>0.05896639556868299</v>
+        <v>0.05069189153765352</v>
       </c>
       <c r="T15">
-        <v>0.05896639556868299</v>
+        <v>0.05069189153765351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H16">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5845866353975</v>
+        <v>41.37117366666666</v>
       </c>
       <c r="N16">
-        <v>40.5845866353975</v>
+        <v>124.113521</v>
       </c>
       <c r="O16">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="P16">
-        <v>0.1932419924208642</v>
+        <v>0.1701903085181653</v>
       </c>
       <c r="Q16">
-        <v>182.0222110540508</v>
+        <v>187.8489582426986</v>
       </c>
       <c r="R16">
-        <v>182.0222110540508</v>
+        <v>1690.640624184288</v>
       </c>
       <c r="S16">
-        <v>0.03289910396192454</v>
+        <v>0.02873658285719024</v>
       </c>
       <c r="T16">
-        <v>0.03289910396192454</v>
+        <v>0.02873658285719023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H17">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.6262742004105</v>
+        <v>41.06943633333334</v>
       </c>
       <c r="N17">
-        <v>40.6262742004105</v>
+        <v>123.208309</v>
       </c>
       <c r="O17">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="P17">
-        <v>0.1934404862036063</v>
+        <v>0.1689490391680327</v>
       </c>
       <c r="Q17">
-        <v>182.2091801323685</v>
+        <v>186.4788969486613</v>
       </c>
       <c r="R17">
-        <v>182.2091801323685</v>
+        <v>1678.310072537952</v>
       </c>
       <c r="S17">
-        <v>0.03293289717380576</v>
+        <v>0.02852699489746003</v>
       </c>
       <c r="T17">
-        <v>0.03293289717380576</v>
+        <v>0.02852699489746003</v>
       </c>
     </row>
   </sheetData>
